--- a/www/IndicatorsPerCountry/Gabon_GDPperCapita_TerritorialRef_1960_2012_CCode_266.xlsx
+++ b/www/IndicatorsPerCountry/Gabon_GDPperCapita_TerritorialRef_1960_2012_CCode_266.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Gabon_GDPperCapita_TerritorialRef_1960_2012_CCode_266.xlsx
+++ b/www/IndicatorsPerCountry/Gabon_GDPperCapita_TerritorialRef_1960_2012_CCode_266.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>3108</t>
-  </si>
-  <si>
-    <t>3204</t>
-  </si>
-  <si>
-    <t>3302</t>
-  </si>
-  <si>
-    <t>3401</t>
-  </si>
-  <si>
-    <t>3504</t>
-  </si>
-  <si>
-    <t>3611</t>
-  </si>
-  <si>
-    <t>3718</t>
-  </si>
-  <si>
-    <t>3827</t>
-  </si>
-  <si>
-    <t>3939</t>
-  </si>
-  <si>
-    <t>4052</t>
-  </si>
-  <si>
-    <t>4184</t>
-  </si>
-  <si>
-    <t>4639</t>
-  </si>
-  <si>
-    <t>4725</t>
-  </si>
-  <si>
-    <t>4832</t>
-  </si>
-  <si>
-    <t>4851</t>
-  </si>
-  <si>
-    <t>4860</t>
-  </si>
-  <si>
-    <t>5003</t>
-  </si>
-  <si>
-    <t>5130</t>
-  </si>
-  <si>
-    <t>5176</t>
-  </si>
-  <si>
-    <t>5518</t>
-  </si>
-  <si>
-    <t>5869</t>
-  </si>
-  <si>
-    <t>6332</t>
-  </si>
-  <si>
-    <t>6892</t>
-  </si>
-  <si>
-    <t>7289</t>
-  </si>
-  <si>
-    <t>9544</t>
-  </si>
-  <si>
-    <t>9406</t>
-  </si>
-  <si>
-    <t>12340</t>
-  </si>
-  <si>
-    <t>9529</t>
-  </si>
-  <si>
-    <t>6721</t>
-  </si>
-  <si>
-    <t>6659</t>
-  </si>
-  <si>
-    <t>6777</t>
-  </si>
-  <si>
-    <t>6541</t>
-  </si>
-  <si>
-    <t>6211</t>
-  </si>
-  <si>
-    <t>6105</t>
-  </si>
-  <si>
-    <t>6142</t>
-  </si>
-  <si>
-    <t>5818</t>
-  </si>
-  <si>
-    <t>5356</t>
-  </si>
-  <si>
-    <t>4546</t>
-  </si>
-  <si>
-    <t>4542</t>
-  </si>
-  <si>
-    <t>4637</t>
-  </si>
-  <si>
-    <t>4797.01178146</t>
-  </si>
-  <si>
-    <t>4971.23669209</t>
-  </si>
-  <si>
-    <t>4680.75422231</t>
-  </si>
-  <si>
-    <t>4666.34367952</t>
-  </si>
-  <si>
-    <t>4710.74959815</t>
-  </si>
-  <si>
-    <t>4815.42282275</t>
-  </si>
-  <si>
-    <t>4858.30475864</t>
-  </si>
-  <si>
-    <t>5002.04092498</t>
-  </si>
-  <si>
-    <t>5042.46995474</t>
-  </si>
-  <si>
-    <t>4052.19935315</t>
-  </si>
-  <si>
-    <t>3844.13500492</t>
-  </si>
-  <si>
-    <t>3819.86740774</t>
-  </si>
-  <si>
-    <t>3728.01772962</t>
-  </si>
-  <si>
-    <t>3732.48848324</t>
-  </si>
-  <si>
-    <t>3685.83682934</t>
-  </si>
-  <si>
-    <t>3711.4258897</t>
-  </si>
-  <si>
-    <t>3675.00659005</t>
-  </si>
-  <si>
-    <t>3801.02042568</t>
-  </si>
-  <si>
-    <t>3811.33264057</t>
+    <t>2958</t>
+  </si>
+  <si>
+    <t>3049</t>
+  </si>
+  <si>
+    <t>3143</t>
+  </si>
+  <si>
+    <t>3237</t>
+  </si>
+  <si>
+    <t>3335</t>
+  </si>
+  <si>
+    <t>3437</t>
+  </si>
+  <si>
+    <t>3539</t>
+  </si>
+  <si>
+    <t>3642</t>
+  </si>
+  <si>
+    <t>3749</t>
+  </si>
+  <si>
+    <t>3857</t>
+  </si>
+  <si>
+    <t>3982</t>
+  </si>
+  <si>
+    <t>4415</t>
+  </si>
+  <si>
+    <t>4497</t>
+  </si>
+  <si>
+    <t>4599</t>
+  </si>
+  <si>
+    <t>4616</t>
+  </si>
+  <si>
+    <t>4626</t>
+  </si>
+  <si>
+    <t>4761</t>
+  </si>
+  <si>
+    <t>4882</t>
+  </si>
+  <si>
+    <t>4927</t>
+  </si>
+  <si>
+    <t>5252</t>
+  </si>
+  <si>
+    <t>5587</t>
+  </si>
+  <si>
+    <t>6027</t>
+  </si>
+  <si>
+    <t>6559</t>
+  </si>
+  <si>
+    <t>6935</t>
+  </si>
+  <si>
+    <t>9083</t>
+  </si>
+  <si>
+    <t>9985</t>
+  </si>
+  <si>
+    <t>12747</t>
+  </si>
+  <si>
+    <t>10849</t>
+  </si>
+  <si>
+    <t>8013</t>
+  </si>
+  <si>
+    <t>8091</t>
+  </si>
+  <si>
+    <t>8402</t>
+  </si>
+  <si>
+    <t>8625</t>
+  </si>
+  <si>
+    <t>8099</t>
+  </si>
+  <si>
+    <t>8281</t>
+  </si>
+  <si>
+    <t>8612</t>
+  </si>
+  <si>
+    <t>8131</t>
+  </si>
+  <si>
+    <t>7818</t>
+  </si>
+  <si>
+    <t>6320</t>
+  </si>
+  <si>
+    <t>6982</t>
+  </si>
+  <si>
+    <t>7422</t>
+  </si>
+  <si>
+    <t>7646</t>
+  </si>
+  <si>
+    <t>8296.57394557838</t>
+  </si>
+  <si>
+    <t>8194.49945140058</t>
+  </si>
+  <si>
+    <t>8551.05872261632</t>
+  </si>
+  <si>
+    <t>9192.5629850228</t>
+  </si>
+  <si>
+    <t>9833.98903886481</t>
+  </si>
+  <si>
+    <t>10389.2097947514</t>
+  </si>
+  <si>
+    <t>11202.8387820701</t>
+  </si>
+  <si>
+    <t>11758.1601210366</t>
+  </si>
+  <si>
+    <t>10648.0894892769</t>
+  </si>
+  <si>
+    <t>10637.7997208308</t>
+  </si>
+  <si>
+    <t>11104.5530426954</t>
+  </si>
+  <si>
+    <t>11141.4626736169</t>
+  </si>
+  <si>
+    <t>11665.8322643403</t>
+  </si>
+  <si>
+    <t>12022.5071831266</t>
+  </si>
+  <si>
+    <t>12437.9596840368</t>
+  </si>
+  <si>
+    <t>12342.7793300667</t>
+  </si>
+  <si>
+    <t>13455.6124838169</t>
+  </si>
+  <si>
+    <t>13330.2547689156</t>
+  </si>
+  <si>
+    <t>13617.8961017338</t>
+  </si>
+  <si>
+    <t>14926.6996403551</t>
+  </si>
+  <si>
+    <t>16403</t>
+  </si>
+  <si>
+    <t>16932</t>
+  </si>
+  <si>
+    <t>17532</t>
+  </si>
+  <si>
+    <t>18053</t>
+  </si>
+  <si>
+    <t>18389</t>
+  </si>
+  <si>
+    <t>18413</t>
   </si>
   <si>
     <t>Description</t>
@@ -1317,6 +1341,142 @@
         <v>65</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>266.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1332,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
